--- a/3/zad.xlsx
+++ b/3/zad.xlsx
@@ -14,24 +14,78 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>dawka</t>
   </si>
   <si>
     <t>ni</t>
+  </si>
+  <si>
+    <t>0,0-0,2</t>
+  </si>
+  <si>
+    <t>0,2-0,4</t>
+  </si>
+  <si>
+    <t>0,4-0,6</t>
+  </si>
+  <si>
+    <t>0,6-0,8</t>
+  </si>
+  <si>
+    <t>0,8-1,0</t>
+  </si>
+  <si>
+    <t>1,0-1,2</t>
+  </si>
+  <si>
+    <t>1,2-1,4</t>
+  </si>
+  <si>
+    <t>czas efektu</t>
+  </si>
+  <si>
+    <t>liczba doświadczeń</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>odch. Stand.</t>
+  </si>
+  <si>
+    <t>wariancja s^2</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a= </t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>średnia x</t>
+  </si>
+  <si>
+    <t>xi * ni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,16 +104,39 @@
       <name val="Arial"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -67,18 +144,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Komórka zaznaczona" xfId="2" builtinId="23"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny_Arkusz1" xfId="1"/>
   </cellStyles>
@@ -93,6 +208,874 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188109E-2"/>
+          <c:y val="2.8194444444444459E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$E$2:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3,5-6,5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6,5-9,5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9,5-12,5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12,5-15,5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15,5-18,5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18,5-21,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="448020936"/>
+        <c:axId val="448022504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="448020936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448022504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448022504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448020936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,23 +1365,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J1" s="2"/>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -412,8 +1413,25 @@
         <f t="array" ref="D2:D7">FREQUENCY(A2:A33,C2:C7)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>B2&amp;"-"&amp;C2</f>
+        <v>3,5-6,5</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>15</v>
       </c>
@@ -426,8 +1444,26 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E7" si="0">B3&amp;"-"&amp;C3</f>
+        <v>6,5-9,5</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>128</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <f>SUM(N11:N17)/P2</f>
+        <v>0.67280000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -440,8 +1476,26 @@
       <c r="D4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>9,5-12,5</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>245</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <f>1/P2*(SUM(L11:L17)-P3)^2</f>
+        <v>1.7869219839999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -454,8 +1508,22 @@
       <c r="D5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>12,5-15,5</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="L5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>286</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -468,8 +1536,19 @@
       <c r="D6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>15,5-18,5</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="L6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -482,158 +1561,330 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>18,5-21,5</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>90</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="L10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="L11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>50</v>
+      </c>
+      <c r="N11" s="4">
+        <f>L11*M11</f>
+        <v>5</v>
+      </c>
+      <c r="O11" s="4">
+        <f>(L11 - P3)^2*M11</f>
+        <v>16.404992000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="L12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M12" s="5">
+        <v>128</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" ref="N12:N17" si="1">L12*M12</f>
+        <v>38.4</v>
+      </c>
+      <c r="O12" s="4">
+        <f>(L12 - P3)^2*M12</f>
+        <v>17.789419520000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="L13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="5">
+        <v>245</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>122.5</v>
+      </c>
+      <c r="O13" s="4">
+        <f>(L13 - P3)^2*M13</f>
+        <v>7.3156608000000052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="L14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M14" s="5">
+        <v>286</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
+        <v>200.2</v>
+      </c>
+      <c r="O14" s="4">
+        <f>(L14 - P3)^2*M14</f>
+        <v>0.21159423999999832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+      <c r="L15" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="M15" s="5">
+        <v>134</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>120.60000000000001</v>
+      </c>
+      <c r="O15" s="4">
+        <f>(L15 - P3)^2*M15</f>
+        <v>6.9170585599999974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>19</v>
       </c>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="L16" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M16" s="5">
+        <v>90</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="1"/>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="O16" s="4">
+        <f>(L16 - P3)^2*M16</f>
+        <v>16.424985600000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+      <c r="L17" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="M17" s="5">
+        <v>67</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
+        <v>87.100000000000009</v>
+      </c>
+      <c r="O17" s="4">
+        <f>(L17 - P3)^2*M17</f>
+        <v>26.35644928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>10</v>
       </c>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>11</v>
       </c>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>14</v>
       </c>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>9</v>
       </c>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>12</v>
       </c>
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>11</v>
       </c>
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>15</v>
       </c>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>14</v>
       </c>
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>17</v>
       </c>
       <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>13</v>
       </c>
       <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>15</v>
       </c>
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>16</v>
       </c>
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>12</v>
       </c>
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>14</v>
       </c>
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>17</v>
       </c>
       <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>14</v>
       </c>
       <c r="B33" s="1"/>
-    </row>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>